--- a/acronimos_rev5.xlsx
+++ b/acronimos_rev5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenji\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE77AE5-8206-453E-9525-0AF3DC19F1B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CB27D0-BE9E-4BA7-88D4-20DC4E821F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15167" uniqueCount="7566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15185" uniqueCount="7572">
   <si>
     <t>NOME</t>
   </si>
@@ -22958,6 +22958,24 @@
   </si>
   <si>
     <t>Saldo remanescente Princ Parcelamento VIBEOLI CERAMICA</t>
+  </si>
+  <si>
+    <t>Procedimento Arbitral nº 22/2014 - Est. Inad</t>
+  </si>
+  <si>
+    <t>Resolução 545-13 - DOXO - Ago19</t>
+  </si>
+  <si>
+    <t>Ação n 00270959220184013400 Est Atm de Juros</t>
+  </si>
+  <si>
+    <t>Atm 1009710-32-2018-4-01-0000 - (retroativas)</t>
+  </si>
+  <si>
+    <t>Est - Processo nº 501578-10-2017-4-03-6100 (Ago a Out/17)</t>
+  </si>
+  <si>
+    <t>Ação nº 0027095-92.2018.4.01.3400 Est Juros</t>
   </si>
 </sst>
 </file>
@@ -23439,10 +23457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7559"/>
+  <dimension ref="A1:C7565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7535" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G7562" sqref="G7562"/>
+    <sheetView tabSelected="1" topLeftCell="A7553" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G7578" sqref="G7578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -84066,6 +84084,72 @@
         <v>7565</v>
       </c>
       <c r="C7559" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7560" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7560" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7560" t="s">
+        <v>7566</v>
+      </c>
+      <c r="C7560" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7561" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7561" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7561" t="s">
+        <v>7567</v>
+      </c>
+      <c r="C7561" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7562" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7562" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7562" t="s">
+        <v>7568</v>
+      </c>
+      <c r="C7562" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7563" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7563" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7563" t="s">
+        <v>7569</v>
+      </c>
+      <c r="C7563" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7564" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7564" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7564" t="s">
+        <v>7570</v>
+      </c>
+      <c r="C7564" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7565" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7565" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7565" t="s">
+        <v>7571</v>
+      </c>
+      <c r="C7565" t="s">
         <v>7524</v>
       </c>
     </row>
@@ -84131,12 +84215,12 @@
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7425)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7511:A7559">
+  <conditionalFormatting sqref="A7511:A7565">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7511)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7511:A7559">
+  <conditionalFormatting sqref="A7511:A7565">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7511)))</formula>
     </cfRule>
